--- a/test/Hướng dẫn.xlsx
+++ b/test/Hướng dẫn.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODEGYM_DN\@module6\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Le_Ta_Ha_Phuong\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FC7974-8AA5-448A-BF2C-9E696780E659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3092BD5-01B6-4A00-8424-5E73FCA45646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F54F955C-A688-4B51-B1F6-CB2ADAD54A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hướng dẫn" sheetId="1" r:id="rId1"/>
-    <sheet name="dependence" sheetId="10" r:id="rId2"/>
-    <sheet name="cấu trúc dự án" sheetId="2" r:id="rId3"/>
-    <sheet name="model" sheetId="3" r:id="rId4"/>
-    <sheet name="repository" sheetId="4" r:id="rId5"/>
-    <sheet name="service" sheetId="5" r:id="rId6"/>
-    <sheet name="security" sheetId="6" r:id="rId7"/>
-    <sheet name="config" sheetId="7" r:id="rId8"/>
-    <sheet name="dto" sheetId="8" r:id="rId9"/>
-    <sheet name="controller" sheetId="9" r:id="rId10"/>
+    <sheet name="tạo dự án" sheetId="11" r:id="rId2"/>
+    <sheet name="dependence" sheetId="10" r:id="rId3"/>
+    <sheet name="cấu trúc dự án" sheetId="2" r:id="rId4"/>
+    <sheet name="model" sheetId="3" r:id="rId5"/>
+    <sheet name="repository" sheetId="4" r:id="rId6"/>
+    <sheet name="service" sheetId="5" r:id="rId7"/>
+    <sheet name="security" sheetId="6" r:id="rId8"/>
+    <sheet name="config" sheetId="7" r:id="rId9"/>
+    <sheet name="dto" sheetId="8" r:id="rId10"/>
+    <sheet name="controller" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
   <si>
     <t>Cấu trúc dự án</t>
   </si>
@@ -327,12 +328,79 @@
   <si>
     <t>back</t>
   </si>
+  <si>
+    <t>tạo dự án'!A1</t>
+  </si>
+  <si>
+    <t>file -&gt;new -&gt; project</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tạo dự án </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPRING INITIALIZR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> như bình thương</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tại đây có thể </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Finish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>luôn và import thư viện grade của của mình đã chuẩn bị sẵn -&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>link nè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4: </t>
+  </si>
+  <si>
+    <t>Sau khi tạo dự án thì các bạn vào tạo các thư mục cần thiết để code. (GoodLuck!!!)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +445,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -436,17 +512,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
@@ -471,6 +546,949 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295997</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F8EE5A-EF97-4B6E-B305-D86479A0E773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="762000"/>
+          <a:ext cx="5172797" cy="4877481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>324919</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9718C51-B70B-4E5A-A009-9AB3DA1D82DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="6315075"/>
+          <a:ext cx="7659169" cy="5934903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108DC5BB-E1CC-4CDF-86A8-2719542E25F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="8162925"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7477468F-1281-4AF9-887D-66CA1A58F242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="9439275"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95BC374-F966-460B-AD07-3974751D9C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="9029700"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D75DA6-28BB-4EC3-A2CD-E0093BEC3208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="8620125"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07186266-9121-4887-BCFE-AF9121A22042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="8181975"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA476F0-37E6-415A-9D81-82D378CA2263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="7734300"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10542026-E0CF-44C2-B8F6-9B69B87CE728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248775" y="7353300"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC1F3E0-D324-4F50-8BE6-038CB9C9D47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="6934200"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3A24F9-F802-40B5-98D2-96D11591BC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="9867900"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="418704" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C0777A-A447-4200-929F-4A05C5E42FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="10306050"/>
+          <a:ext cx="418704" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="418704" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E623C40B-8D6C-4A11-B292-7706C112482B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="10753725"/>
+          <a:ext cx="418704" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="418704" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17C1F53-16DE-47DF-9B52-99D2BEE9D486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="11811000"/>
+          <a:ext cx="418704" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCD9662-C330-482E-BD04-86CFEE45C2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="6981825"/>
+          <a:ext cx="2514600" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>334443</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>143693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDBE555-1FE7-4AD8-9129-82549A13ACA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="12954000"/>
+          <a:ext cx="7649643" cy="5858693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -519,7 +1537,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -656,7 +1674,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -749,7 +1767,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -930,7 +1948,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1155,7 +2173,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1204,7 +2222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1385,7 +2403,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1777,12 +2795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380DB9C1-2FCD-4505-B495-7556379A746C}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1793,12 +2813,15 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1814,7 +2837,7 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1830,7 +2853,7 @@
       <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1838,7 +2861,7 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1846,7 +2869,7 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1854,7 +2877,7 @@
       <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1862,7 +2885,7 @@
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1870,7 +2893,7 @@
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1878,7 +2901,7 @@
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1893,12 +2916,83 @@
     <hyperlink ref="C12" location="dto!A1" display="dto!A1" xr:uid="{C790179F-37AD-4844-9289-2DF059E00834}"/>
     <hyperlink ref="C7" location="model!A1" display="model!A1" xr:uid="{F7A62FC1-AAEE-4239-8EF0-8ECDC231B53C}"/>
     <hyperlink ref="C13" location="controller!A1" display="controller!A1" xr:uid="{ED845A8A-C61C-419F-8565-FCD2A9251A2C}"/>
+    <hyperlink ref="C2" location="'tạo dự án'!A1" display="'tạo dự án'!A1" xr:uid="{4D9E3ADD-36CB-4F2D-BC11-886565DE8087}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17572D9-9EDF-4DD6-880A-70202C36EC0C}">
+  <dimension ref="A1:H215"/>
+  <sheetViews>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="2" customFormat="1">
+      <c r="A107" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="1" customFormat="1">
+      <c r="A108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="1" customFormat="1">
+      <c r="A161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8">
+      <c r="H215" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" location="'Hướng dẫn'!A1" display="back" xr:uid="{BF125278-6452-402F-AB91-C887333000B0}"/>
+    <hyperlink ref="H55" location="'Hướng dẫn'!A1" display="back" xr:uid="{4832B924-7E2A-4D63-A61D-D9E4A52585B3}"/>
+    <hyperlink ref="H108" location="'Hướng dẫn'!A1" display="back" xr:uid="{6E595DB1-DE3B-4CF9-A490-E5A78E4D6EFE}"/>
+    <hyperlink ref="H161" location="'Hướng dẫn'!A1" display="back" xr:uid="{8E2568AC-1B85-4879-A047-E6A036BC4736}"/>
+    <hyperlink ref="H215" location="'Hướng dẫn'!A1" display="back" xr:uid="{CC1C500E-7C79-4F60-8A9A-A7368B37E78A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771C2E1-9FF1-4CD4-B703-1870E295071D}">
   <dimension ref="A1:J104"/>
   <sheetViews>
@@ -1917,7 +3011,7 @@
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1925,7 +3019,7 @@
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1933,7 +3027,7 @@
       <c r="A55" s="4"/>
     </row>
     <row r="104" spans="10:10">
-      <c r="J104" s="13" t="s">
+      <c r="J104" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1949,8 +3043,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC5AA9F-92A1-458F-9C45-DE9D96258382}">
+  <dimension ref="B2:L103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="E103" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hướng dẫn'!A1" display="back" xr:uid="{BCB204E5-FA52-438C-80CB-AB7E7C6747F1}"/>
+    <hyperlink ref="L67" location="dependence!A1" display="link nè" xr:uid="{370B9447-63D3-4A0D-9481-64E11CA53313}"/>
+    <hyperlink ref="E103" location="'Hướng dẫn'!A1" display="back" xr:uid="{E3380FA1-9095-4E30-A7DC-7307B2EB6E98}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327A2A5-12AE-479D-AD96-2299CCB60278}">
-  <dimension ref="A2:N26"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1958,366 +3119,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:2">
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="9" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="9" t="s">
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="9" t="s">
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14">
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
@@ -2330,7 +3239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7ADC4D-A44E-4D58-A17B-4B45B68B9B85}">
   <dimension ref="A1:A37"/>
   <sheetViews>
@@ -2346,172 +3255,172 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2530,7 +3439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8129BFA-E355-4159-B4C0-7D55D3C6AF1D}">
   <dimension ref="A1:E84"/>
   <sheetViews>
@@ -2544,7 +3453,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2552,7 +3461,7 @@
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2560,7 +3469,7 @@
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2575,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1CA435-97A2-49FC-B0F4-4D3B61E53EC6}">
   <dimension ref="A1:G108"/>
   <sheetViews>
@@ -2589,7 +3498,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2597,12 +3506,12 @@
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="13" t="s">
+      <c r="G108" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2617,7 +3526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BBEED0-BB72-4B53-B8F7-9A23532A65FD}">
   <dimension ref="A1:H200"/>
   <sheetViews>
@@ -2631,7 +3540,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2639,7 +3548,7 @@
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2647,7 +3556,7 @@
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H97" s="13" t="s">
+      <c r="H97" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2660,12 +3569,12 @@
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H146" s="13" t="s">
+      <c r="H146" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="200" spans="8:8">
-      <c r="H200" s="13" t="s">
+      <c r="H200" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2683,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB315CA9-2D9B-4FFF-9817-174D59F2ABA7}">
   <dimension ref="A1:I259"/>
   <sheetViews>
@@ -2697,7 +3606,7 @@
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2710,7 +3619,7 @@
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2718,7 +3627,7 @@
       <c r="A102" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2731,7 +3640,7 @@
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I153" s="13" t="s">
+      <c r="I153" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2739,12 +3648,12 @@
       <c r="A205" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I205" s="13" t="s">
+      <c r="I205" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="259" spans="9:9">
-      <c r="I259" s="13" t="s">
+      <c r="I259" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2762,7 +3671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB258AF-5FEF-4810-A2EF-E563CE094F57}">
   <dimension ref="A1:I55"/>
   <sheetViews>
@@ -2776,12 +3685,12 @@
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="9:9">
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2793,74 +3702,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17572D9-9EDF-4DD6-880A-70202C36EC0C}">
-  <dimension ref="A1:H215"/>
-  <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H215" sqref="H215"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="2" customFormat="1">
-      <c r="A107" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="1" customFormat="1">
-      <c r="A108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="1" customFormat="1">
-      <c r="A161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="215" spans="8:8">
-      <c r="H215" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" location="'Hướng dẫn'!A1" display="back" xr:uid="{BF125278-6452-402F-AB91-C887333000B0}"/>
-    <hyperlink ref="H55" location="'Hướng dẫn'!A1" display="back" xr:uid="{4832B924-7E2A-4D63-A61D-D9E4A52585B3}"/>
-    <hyperlink ref="H108" location="'Hướng dẫn'!A1" display="back" xr:uid="{6E595DB1-DE3B-4CF9-A490-E5A78E4D6EFE}"/>
-    <hyperlink ref="H161" location="'Hướng dẫn'!A1" display="back" xr:uid="{8E2568AC-1B85-4879-A047-E6A036BC4736}"/>
-    <hyperlink ref="H215" location="'Hướng dẫn'!A1" display="back" xr:uid="{CC1C500E-7C79-4F60-8A9A-A7368B37E78A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>